--- a/DNT_PROTOCOL.xlsx
+++ b/DNT_PROTOCOL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\rclone\server-kentang\pythonProject\dnt3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\rclone\server-kentang\pythonProject\dnt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C3E619-D2C4-4BAD-9A89-B3AC3F3D866A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D961929-4F68-4AE9-93D6-62AEECCE4F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{CD1D29E1-26CD-49AD-AE63-3C41EF4D2597}"/>
   </bookViews>
@@ -125,9 +125,6 @@
     <t>Echoed (No reply)</t>
   </si>
   <si>
-    <t>Timeout(60)</t>
-  </si>
-  <si>
     <t>META 4</t>
   </si>
   <si>
@@ -171,6 +168,9 @@
   </si>
   <si>
     <t>Echoed (Transmit Failed)</t>
+  </si>
+  <si>
+    <t>TTL(60)</t>
   </si>
 </sst>
 </file>
@@ -415,66 +415,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -483,6 +423,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -495,11 +441,65 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -824,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52E53C7-8F3A-46DF-90DD-AF0802BFBF26}">
   <dimension ref="A1:AB63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="V59" sqref="V59"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,368 +835,368 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="L3" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="L3" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="30"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="10"/>
       <c r="AB3" s="2"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="19" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
       <c r="G4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="L4" s="12" t="s">
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="L4" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="31"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="11"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
       <c r="G5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="L5" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="36" t="s">
+      <c r="H5" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="L5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="11"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="32"/>
-      <c r="AA5" s="31"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="8">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-      <c r="L6" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="38" t="s">
+      <c r="X6" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="X6" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="32"/>
-      <c r="AA6" s="31"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="11"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="31"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="11"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="L8" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="32"/>
-      <c r="Z8" s="32"/>
-      <c r="AA8" s="31"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="L8" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="11"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="L9" s="19" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="L9" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="31"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="13" t="s">
+      <c r="L13" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="19" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="19" t="s">
+      <c r="L14" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
       <c r="G15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H15" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
+      <c r="H15" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
       <c r="K15" s="4"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -1205,8 +1205,8 @@
       <c r="S15" s="1"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="8">
         <v>1</v>
       </c>
@@ -1237,20 +1237,20 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="26"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="28"/>
       <c r="K17" s="4"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -1259,24 +1259,24 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
       <c r="G18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="H18" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
       <c r="K18" s="4"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -1288,43 +1288,43 @@
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="26"/>
+      <c r="A19" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="28"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
+      <c r="A21" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
@@ -1339,60 +1339,60 @@
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="19" t="s">
+      <c r="B24" s="23"/>
+      <c r="C24" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
       <c r="G24" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
       <c r="G25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
+      <c r="H25" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="8">
         <v>1</v>
       </c>
@@ -1419,52 +1419,52 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="29" t="s">
+      <c r="B27" s="24"/>
+      <c r="C27" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="26"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="28"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="29" t="s">
+      <c r="B28" s="24"/>
+      <c r="C28" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="26"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="28"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="29" t="s">
+      <c r="B29" s="24"/>
+      <c r="C29" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="26"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="28"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
@@ -1479,60 +1479,60 @@
       <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="19" t="s">
+      <c r="B32" s="23"/>
+      <c r="C32" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
       <c r="G32" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="H32" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
       <c r="G33" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H33" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
+      <c r="H33" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="8">
         <v>1</v>
       </c>
@@ -1559,52 +1559,52 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="29" t="s">
+      <c r="B35" s="24"/>
+      <c r="C35" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="26"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="28"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="29" t="s">
+      <c r="B36" s="24"/>
+      <c r="C36" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="26"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="28"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="29" t="s">
+      <c r="B37" s="24"/>
+      <c r="C37" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="26"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="28"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
@@ -1619,60 +1619,60 @@
       <c r="J38" s="6"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="19" t="s">
+      <c r="B40" s="23"/>
+      <c r="C40" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
       <c r="G40" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H40" s="15" t="s">
+      <c r="H40" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
       <c r="G41" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H41" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
+      <c r="H41" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
       <c r="C42" s="8">
         <v>1</v>
       </c>
@@ -1699,52 +1699,52 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="29" t="s">
+      <c r="B43" s="24"/>
+      <c r="C43" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="26"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="28"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="29" t="s">
+      <c r="B44" s="24"/>
+      <c r="C44" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="26"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="28"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="29" t="s">
+      <c r="B45" s="24"/>
+      <c r="C45" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="26"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="28"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
@@ -1759,60 +1759,60 @@
       <c r="J46" s="6"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="20"/>
-      <c r="C48" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D48" s="19" t="s">
+      <c r="B48" s="23"/>
+      <c r="C48" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
       <c r="G48" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H48" s="15" t="s">
+      <c r="H48" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="20"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
+      <c r="A49" s="23"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
       <c r="G49" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H49" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
+      <c r="H49" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="20"/>
-      <c r="B50" s="20"/>
+      <c r="A50" s="23"/>
+      <c r="B50" s="23"/>
       <c r="C50" s="8">
         <v>1</v>
       </c>
@@ -1839,75 +1839,75 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="15"/>
-      <c r="C51" s="29" t="s">
+      <c r="B51" s="24"/>
+      <c r="C51" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="26"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="28"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B52" s="15"/>
-      <c r="C52" s="29" t="s">
+      <c r="B52" s="24"/>
+      <c r="C52" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="26"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="28"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="15"/>
-      <c r="C53" s="29" t="s">
+      <c r="B53" s="24"/>
+      <c r="C53" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="26"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="28"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="10"/>
-      <c r="R55" s="10"/>
-      <c r="S55" s="10"/>
+      <c r="A55" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="35"/>
+      <c r="O55" s="35"/>
+      <c r="P55" s="35"/>
+      <c r="Q55" s="35"/>
+      <c r="R55" s="35"/>
+      <c r="S55" s="35"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
@@ -1931,93 +1931,93 @@
       <c r="S56" s="2"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="17" t="s">
+      <c r="A57" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
       <c r="K57" s="4"/>
-      <c r="L57" s="13" t="s">
+      <c r="L57" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="13"/>
-      <c r="P57" s="13"/>
-      <c r="Q57" s="13"/>
-      <c r="R57" s="13"/>
-      <c r="S57" s="13"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="20"/>
+      <c r="P57" s="20"/>
+      <c r="Q57" s="20"/>
+      <c r="R57" s="20"/>
+      <c r="S57" s="20"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="20" t="s">
+      <c r="A58" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B58" s="20"/>
-      <c r="C58" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D58" s="19" t="s">
+      <c r="B58" s="23"/>
+      <c r="C58" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
       <c r="G58" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="15" t="s">
+      <c r="H58" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
       <c r="K58" s="4"/>
-      <c r="L58" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19"/>
-      <c r="O58" s="19"/>
-      <c r="P58" s="19"/>
-      <c r="Q58" s="19"/>
-      <c r="R58" s="19"/>
-      <c r="S58" s="19"/>
+      <c r="L58" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="21"/>
+      <c r="Q58" s="21"/>
+      <c r="R58" s="21"/>
+      <c r="S58" s="21"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="20"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
+      <c r="A59" s="23"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
       <c r="G59" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H59" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I59" s="21"/>
-      <c r="J59" s="21"/>
+      <c r="H59" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
       <c r="K59" s="4"/>
-      <c r="L59" s="13" t="s">
+      <c r="L59" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="M59" s="13"/>
-      <c r="N59" s="13"/>
-      <c r="O59" s="13"/>
-      <c r="P59" s="13"/>
-      <c r="Q59" s="13"/>
-      <c r="R59" s="13"/>
-      <c r="S59" s="13"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="20"/>
+      <c r="O59" s="20"/>
+      <c r="P59" s="20"/>
+      <c r="Q59" s="20"/>
+      <c r="R59" s="20"/>
+      <c r="S59" s="20"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="20"/>
-      <c r="B60" s="20"/>
+      <c r="A60" s="23"/>
+      <c r="B60" s="23"/>
       <c r="C60" s="8">
         <v>1</v>
       </c>
@@ -2043,16 +2043,16 @@
         <v>0</v>
       </c>
       <c r="K60" s="4"/>
-      <c r="L60" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="M60" s="19"/>
-      <c r="N60" s="19"/>
-      <c r="O60" s="19"/>
-      <c r="P60" s="19"/>
-      <c r="Q60" s="19"/>
-      <c r="R60" s="19"/>
-      <c r="S60" s="19"/>
+      <c r="L60" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M60" s="21"/>
+      <c r="N60" s="21"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="21"/>
+      <c r="Q60" s="21"/>
+      <c r="R60" s="21"/>
+      <c r="S60" s="21"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
@@ -2101,11 +2101,79 @@
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="V3:Z3"/>
-    <mergeCell ref="V4:Z4"/>
-    <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="L57:S57"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C7:J9"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:F5"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:B16"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="D14:F15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:B26"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="D24:F25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A21:S21"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A32:B34"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="D32:F33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A40:B42"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="D40:F41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:J45"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="A48:B50"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="D48:F49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:J53"/>
     <mergeCell ref="L58:S58"/>
     <mergeCell ref="L59:S59"/>
     <mergeCell ref="L60:S60"/>
@@ -2115,89 +2183,21 @@
     <mergeCell ref="H58:J58"/>
     <mergeCell ref="D58:F59"/>
     <mergeCell ref="H59:J59"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="A48:B50"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="D48:F49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:J45"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A40:B42"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="D40:F41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A32:B34"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="D32:F33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:B26"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="D24:F25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="V3:Z3"/>
+    <mergeCell ref="V4:Z4"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="L57:S57"/>
     <mergeCell ref="L5:S5"/>
     <mergeCell ref="L6:S6"/>
     <mergeCell ref="L8:S8"/>
     <mergeCell ref="L9:S9"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A14:B16"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="D14:F15"/>
-    <mergeCell ref="H15:J15"/>
     <mergeCell ref="L13:S13"/>
     <mergeCell ref="L14:S14"/>
     <mergeCell ref="A55:S55"/>
-    <mergeCell ref="A21:S21"/>
     <mergeCell ref="L4:S4"/>
     <mergeCell ref="L3:S3"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C7:J9"/>
-    <mergeCell ref="A3:J3"/>
     <mergeCell ref="A11:S11"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:F5"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/DNT_PROTOCOL.xlsx
+++ b/DNT_PROTOCOL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\rclone\server-kentang\pythonProject\dnt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\KULIAH\LAB_HARDWARE\dnt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D961929-4F68-4AE9-93D6-62AEECCE4F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378BC2F9-0462-41ED-A676-9E2F4F0D08AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{CD1D29E1-26CD-49AD-AE63-3C41EF4D2597}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="48">
   <si>
     <t>EN</t>
   </si>
@@ -149,12 +149,6 @@
     <t>CLOSING (Server verif a segment) (BASELLBA --&gt; BASEBALL)</t>
   </si>
   <si>
-    <t>Segment</t>
-  </si>
-  <si>
-    <t>Packet</t>
-  </si>
-  <si>
     <t>Head</t>
   </si>
   <si>
@@ -164,13 +158,25 @@
     <t>Content (File)</t>
   </si>
   <si>
-    <t>IPv4: return 1 (Transmit Success / Retransmit)</t>
-  </si>
-  <si>
     <t>Echoed (Transmit Failed)</t>
   </si>
   <si>
     <t>TTL(60)</t>
+  </si>
+  <si>
+    <t>Packets</t>
+  </si>
+  <si>
+    <t>Segments</t>
+  </si>
+  <si>
+    <t>OP=0</t>
+  </si>
+  <si>
+    <t>TX=1</t>
+  </si>
+  <si>
+    <t>IPv4: return &lt;id&gt;(2) (Transmit Success / Retransmit)</t>
   </si>
 </sst>
 </file>
@@ -429,6 +435,57 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -441,62 +498,11 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -824,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52E53C7-8F3A-46DF-90DD-AF0802BFBF26}">
   <dimension ref="A1:AB63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:F18"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="Y57" sqref="Y57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,141 +841,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="L3" s="20" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="L3" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
       <c r="U3" s="10"/>
-      <c r="V3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
+      <c r="V3" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
       <c r="AA3" s="10"/>
       <c r="AB3" s="2"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="21" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
       <c r="G4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="L4" s="37" t="s">
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="L4" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
       <c r="U4" s="11"/>
-      <c r="V4" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
+      <c r="V4" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
       <c r="AA4" s="11"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
       <c r="G5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="L5" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="L5" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
       <c r="U5" s="11"/>
       <c r="V5" s="12"/>
-      <c r="W5" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
+      <c r="W5" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
       <c r="Z5" s="12"/>
       <c r="AA5" s="11"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="8">
         <v>1</v>
       </c>
@@ -994,43 +1000,43 @@
       <c r="J6" s="5">
         <v>0</v>
       </c>
-      <c r="L6" s="21" t="s">
+      <c r="L6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
       <c r="U6" s="11"/>
       <c r="V6" s="12"/>
       <c r="W6" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="X6" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y6" s="19"/>
+        <v>38</v>
+      </c>
+      <c r="X6" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y6" s="36"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="11"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="29" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
       <c r="U7" s="11"/>
       <c r="V7" s="12"/>
       <c r="W7" s="15"/>
@@ -1040,28 +1046,28 @@
       <c r="AA7" s="11"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="L8" s="20" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="L8" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
       <c r="U8" s="11"/>
       <c r="V8" s="12"/>
       <c r="W8" s="13"/>
@@ -1071,28 +1077,28 @@
       <c r="AA8" s="11"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="L9" s="21" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="L9" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
       <c r="U9" s="11"/>
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
@@ -1125,78 +1131,78 @@
       <c r="S11" s="39"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="20" t="s">
+      <c r="L13" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="21" t="s">
+      <c r="B14" s="21"/>
+      <c r="C14" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="21" t="s">
+      <c r="L14" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H15" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
+      <c r="H15" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
       <c r="K15" s="4"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -1205,8 +1211,8 @@
       <c r="S15" s="1"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="8">
         <v>1</v>
       </c>
@@ -1237,20 +1243,20 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="33" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="28"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="26"/>
       <c r="K17" s="4"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -1259,24 +1265,24 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
       <c r="G18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="28" t="s">
+      <c r="H18" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
       <c r="K18" s="4"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -1288,43 +1294,43 @@
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="30" t="s">
+      <c r="B19" s="17"/>
+      <c r="C19" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="26"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
@@ -1339,60 +1345,60 @@
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="21" t="s">
+      <c r="B24" s="21"/>
+      <c r="C24" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
       <c r="G24" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="24" t="s">
+      <c r="H24" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
       <c r="G25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
+      <c r="H25" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="8">
         <v>1</v>
       </c>
@@ -1419,52 +1425,52 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="26" t="s">
+      <c r="B27" s="17"/>
+      <c r="C27" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="28"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="26"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="26" t="s">
+      <c r="B28" s="17"/>
+      <c r="C28" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="28"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="26"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="26" t="s">
+      <c r="B29" s="17"/>
+      <c r="C29" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="28"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="26"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
@@ -1479,60 +1485,60 @@
       <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="21" t="s">
+      <c r="B32" s="21"/>
+      <c r="C32" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
       <c r="G32" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H32" s="24" t="s">
+      <c r="H32" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
       <c r="G33" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H33" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
+      <c r="H33" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="8">
         <v>1</v>
       </c>
@@ -1559,52 +1565,52 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="26" t="s">
+      <c r="B35" s="17"/>
+      <c r="C35" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="28"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="26"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="26" t="s">
+      <c r="B36" s="17"/>
+      <c r="C36" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="28"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="26"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="26" t="s">
+      <c r="B37" s="17"/>
+      <c r="C37" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="28"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="26"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
@@ -1619,60 +1625,60 @@
       <c r="J38" s="6"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="21" t="s">
+      <c r="B40" s="21"/>
+      <c r="C40" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
       <c r="G40" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H40" s="24" t="s">
+      <c r="H40" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
       <c r="G41" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H41" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
+      <c r="H41" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
-      <c r="B42" s="23"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="8">
         <v>1</v>
       </c>
@@ -1699,52 +1705,52 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="24"/>
-      <c r="C43" s="26" t="s">
+      <c r="B43" s="17"/>
+      <c r="C43" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="28"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="26"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="24"/>
-      <c r="C44" s="26" t="s">
+      <c r="B44" s="17"/>
+      <c r="C44" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="28"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="26"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="24"/>
-      <c r="C45" s="26" t="s">
+      <c r="B45" s="17"/>
+      <c r="C45" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="28"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="26"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
@@ -1759,60 +1765,60 @@
       <c r="J46" s="6"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="23"/>
-      <c r="C48" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D48" s="21" t="s">
+      <c r="B48" s="21"/>
+      <c r="C48" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
       <c r="G48" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H48" s="24" t="s">
+      <c r="H48" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
       <c r="G49" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H49" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
+      <c r="H49" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
-      <c r="B50" s="23"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
       <c r="C50" s="8">
         <v>1</v>
       </c>
@@ -1839,75 +1845,75 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="24" t="s">
+      <c r="A51" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="24"/>
-      <c r="C51" s="26" t="s">
+      <c r="B51" s="17"/>
+      <c r="C51" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="28"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="26"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B52" s="24"/>
-      <c r="C52" s="26" t="s">
+      <c r="B52" s="17"/>
+      <c r="C52" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="28"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="26"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="24" t="s">
+      <c r="A53" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="24"/>
-      <c r="C53" s="26" t="s">
+      <c r="B53" s="17"/>
+      <c r="C53" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="28"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="26"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="35" t="s">
+      <c r="A55" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B55" s="35"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="35"/>
-      <c r="O55" s="35"/>
-      <c r="P55" s="35"/>
-      <c r="Q55" s="35"/>
-      <c r="R55" s="35"/>
-      <c r="S55" s="35"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="37"/>
+      <c r="N55" s="37"/>
+      <c r="O55" s="37"/>
+      <c r="P55" s="37"/>
+      <c r="Q55" s="37"/>
+      <c r="R55" s="37"/>
+      <c r="S55" s="37"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
@@ -1931,93 +1937,93 @@
       <c r="S56" s="2"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
       <c r="K57" s="4"/>
-      <c r="L57" s="20" t="s">
+      <c r="L57" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="M57" s="20"/>
-      <c r="N57" s="20"/>
-      <c r="O57" s="20"/>
-      <c r="P57" s="20"/>
-      <c r="Q57" s="20"/>
-      <c r="R57" s="20"/>
-      <c r="S57" s="20"/>
+      <c r="M57" s="32"/>
+      <c r="N57" s="32"/>
+      <c r="O57" s="32"/>
+      <c r="P57" s="32"/>
+      <c r="Q57" s="32"/>
+      <c r="R57" s="32"/>
+      <c r="S57" s="32"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B58" s="23"/>
-      <c r="C58" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D58" s="21" t="s">
+      <c r="B58" s="21"/>
+      <c r="C58" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
       <c r="G58" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="24" t="s">
+      <c r="H58" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I58" s="24"/>
-      <c r="J58" s="24"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
       <c r="K58" s="4"/>
-      <c r="L58" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="M58" s="21"/>
-      <c r="N58" s="21"/>
-      <c r="O58" s="21"/>
-      <c r="P58" s="21"/>
-      <c r="Q58" s="21"/>
-      <c r="R58" s="21"/>
-      <c r="S58" s="21"/>
+      <c r="L58" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="M58" s="20"/>
+      <c r="N58" s="20"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="20"/>
+      <c r="Q58" s="20"/>
+      <c r="R58" s="20"/>
+      <c r="S58" s="20"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
       <c r="G59" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H59" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="I59" s="25"/>
-      <c r="J59" s="25"/>
+      <c r="H59" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
       <c r="K59" s="4"/>
-      <c r="L59" s="20" t="s">
+      <c r="L59" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="M59" s="20"/>
-      <c r="N59" s="20"/>
-      <c r="O59" s="20"/>
-      <c r="P59" s="20"/>
-      <c r="Q59" s="20"/>
-      <c r="R59" s="20"/>
-      <c r="S59" s="20"/>
+      <c r="M59" s="32"/>
+      <c r="N59" s="32"/>
+      <c r="O59" s="32"/>
+      <c r="P59" s="32"/>
+      <c r="Q59" s="32"/>
+      <c r="R59" s="32"/>
+      <c r="S59" s="32"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="23"/>
-      <c r="B60" s="23"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="21"/>
       <c r="C60" s="8">
         <v>1</v>
       </c>
@@ -2043,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="K60" s="4"/>
-      <c r="L60" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="M60" s="21"/>
-      <c r="N60" s="21"/>
-      <c r="O60" s="21"/>
-      <c r="P60" s="21"/>
-      <c r="Q60" s="21"/>
-      <c r="R60" s="21"/>
-      <c r="S60" s="21"/>
+      <c r="L60" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="M60" s="20"/>
+      <c r="N60" s="20"/>
+      <c r="O60" s="20"/>
+      <c r="P60" s="20"/>
+      <c r="Q60" s="20"/>
+      <c r="R60" s="20"/>
+      <c r="S60" s="20"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
@@ -2101,88 +2107,6 @@
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C7:J9"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:F5"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A14:B16"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="D14:F15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:B26"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="D24:F25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A21:S21"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A32:B34"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="D32:F33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A40:B42"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="D40:F41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:J45"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="A48:B50"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="D48:F49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="L58:S58"/>
-    <mergeCell ref="L59:S59"/>
-    <mergeCell ref="L60:S60"/>
-    <mergeCell ref="A57:J57"/>
-    <mergeCell ref="A58:B60"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="D58:F59"/>
-    <mergeCell ref="H59:J59"/>
     <mergeCell ref="V3:Z3"/>
     <mergeCell ref="V4:Z4"/>
     <mergeCell ref="W5:Y5"/>
@@ -2198,6 +2122,88 @@
     <mergeCell ref="L4:S4"/>
     <mergeCell ref="L3:S3"/>
     <mergeCell ref="A11:S11"/>
+    <mergeCell ref="L58:S58"/>
+    <mergeCell ref="L59:S59"/>
+    <mergeCell ref="L60:S60"/>
+    <mergeCell ref="A57:J57"/>
+    <mergeCell ref="A58:B60"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="D58:F59"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="A48:B50"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="D48:F49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:J45"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A40:B42"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="D40:F41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A32:B34"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="D32:F33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A21:S21"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:B26"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="D24:F25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:B16"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="D14:F15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C7:J9"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:F5"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
